--- a/VerveStacks_SAU/SysSettings.xlsx
+++ b/VerveStacks_SAU/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77FA5C5-CFA3-4873-B753-31FB5A537461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53463B4-2A65-411D-A6AF-5B242F436B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_SAU/SysSettings.xlsx
+++ b/VerveStacks_SAU/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53463B4-2A65-411D-A6AF-5B242F436B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2B43F5-BDE7-4AAD-8A42-B5D8CEBC5080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="216">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>flo_mark</t>
+  </si>
+  <si>
+    <t>hydrogen_allsect</t>
+  </si>
+  <si>
+    <t>Hydrogen demand - all sectors</t>
   </si>
   <si>
     <t>SAU</t>
@@ -703,7 +709,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1070,20 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="47">
@@ -1588,7 +1608,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="435">
+  <cellStyleXfs count="437">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2136,8 +2156,10 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -2161,8 +2183,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="234"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="234" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="435">
+  <cellStyles count="437">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
     <cellStyle name="20% - Accent1 3" xfId="5" xr:uid="{58CA3325-8B37-45C5-A177-73E6AEE43B64}"/>
     <cellStyle name="20% - Accent2 2" xfId="6" xr:uid="{3C5AA3C1-DAA0-472F-BECC-C64D10D55099}"/>
@@ -2375,6 +2399,7 @@
     <cellStyle name="Monétaire [0]_03tabmat" xfId="208" xr:uid="{F0DE3656-7A58-4CA3-A5EE-8576552EC653}"/>
     <cellStyle name="Monétaire_03tabmat" xfId="209" xr:uid="{E08D72EA-6991-424D-A48D-6801B506315C}"/>
     <cellStyle name="Neutral 2" xfId="211" xr:uid="{0BD2AEA9-BAC5-48AA-B1A7-8F95AAE6853E}"/>
+    <cellStyle name="Neutral 2 2" xfId="435" xr:uid="{773FC3D2-CB25-40C1-9022-B7616488FC25}"/>
     <cellStyle name="Neutral 3" xfId="210" xr:uid="{2435363D-5388-4D62-AE78-289118217843}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="212" xr:uid="{347F5622-C417-4F2E-B072-ECA7EBFFEE51}"/>
@@ -2474,6 +2499,7 @@
     <cellStyle name="Normal 3 5" xfId="306" xr:uid="{6443DAD9-14AD-440B-897A-2E9A24F0DF1D}"/>
     <cellStyle name="Normal 3 6" xfId="307" xr:uid="{E81CCC51-42D9-4E87-8496-29697C117EDE}"/>
     <cellStyle name="Normal 3 7" xfId="308" xr:uid="{5928F6C9-137F-431B-BF0D-7549BEA7EBFE}"/>
+    <cellStyle name="Normal 3 8" xfId="436" xr:uid="{552B16F0-55E2-4A8F-AA64-ACE13CE218AC}"/>
     <cellStyle name="Normal 30" xfId="309" xr:uid="{55B4AFDB-2E32-4F94-ABBB-FD32410C9D32}"/>
     <cellStyle name="Normal 31" xfId="310" xr:uid="{221EABEA-5450-4B12-B481-461C2BAE31B9}"/>
     <cellStyle name="Normal 32" xfId="311" xr:uid="{99908D0B-751D-4CA3-A3C2-C2D00549AE1A}"/>
@@ -3053,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -3078,9 +3104,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:R22"/>
+  <dimension ref="B3:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3139,7 +3167,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3171,10 +3199,10 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
@@ -3183,7 +3211,7 @@
         <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -3197,10 +3225,10 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P6" t="s">
         <v>29</v>
@@ -3209,7 +3237,7 @@
         <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -3301,10 +3329,10 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -3315,10 +3343,10 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -3329,10 +3357,10 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -3340,41 +3368,47 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
         <v>197</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>198</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>199</v>
-      </c>
-      <c r="E20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="C21" t="s">
-        <v>204</v>
       </c>
       <c r="E21" t="s">
         <v>200</v>
@@ -3382,15 +3416,23 @@
     </row>
     <row r="22" spans="2:7">
       <c r="C22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
         <v>200</v>
       </c>
     </row>
+    <row r="23" spans="2:7">
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C332">
-    <sortCondition ref="C17:C332"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C333">
+    <sortCondition ref="C18:C333"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4254,18 +4296,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
-  <dimension ref="A2:P95"/>
+  <dimension ref="A2:N102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
     <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="12.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.3984375" style="11"/>
+    <col min="5" max="5" width="13.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" style="11"/>
+    <col min="12" max="12" width="17.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="17.649999999999999" thickBot="1">
+    <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
         <v>73</v>
@@ -4273,13 +4328,13 @@
       <c r="E2" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickTop="1" thickBot="1">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>75</v>
@@ -4288,62 +4343,56 @@
         <v>53</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>74</v>
+        <v>188</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2022</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2022</v>
+        <v>60</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="13.15">
+    <row r="4" spans="1:14" ht="13.15">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="11">
+      <c r="I4" s="11">
         <v>0.05</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6">
         <v>1055.55</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="13.15">
+    <row r="5" spans="1:14" ht="13.15">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
         <v>77</v>
@@ -4351,1481 +4400,1536 @@
       <c r="E5" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="11">
+      <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6">
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="13.15">
+    <row r="6" spans="1:14" ht="13.15">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K6" s="11">
+      <c r="I6" s="11">
         <v>2025</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="13.15">
+    <row r="7" spans="1:14" ht="13.15">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="K7" s="11">
+      <c r="I7" s="11">
         <v>1</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13.15">
+    <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
         <v>80</v>
       </c>
+      <c r="F8" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G8" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I8" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="11">
+      <c r="I8" s="11">
         <v>2.2201</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6">
         <v>1.05555</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="13.15">
+    <row r="9" spans="1:14" ht="13.15">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
         <v>81</v>
       </c>
+      <c r="F9" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="11">
+      <c r="I9" s="11">
         <v>2.1427</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="13.15">
+    <row r="10" spans="1:14" ht="13.15">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
         <v>83</v>
       </c>
+      <c r="F10" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K10" s="11">
+      <c r="I10" s="11">
         <v>2.077</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6">
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="13.15">
+    <row r="11" spans="1:14" ht="13.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
         <v>76</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G11" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K11" s="11">
+      <c r="I11" s="11">
         <v>2.0358000000000001</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="13.15">
+    <row r="12" spans="1:14" ht="13.15">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
         <v>87</v>
       </c>
+      <c r="F12" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G12" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I12" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="K12" s="11">
+      <c r="I12" s="11">
         <v>1.9870000000000001</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6">
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="13.15">
+    <row r="13" spans="1:14" ht="13.15">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G13" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="11">
+      <c r="I13" s="11">
         <v>1.9192</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="13.15">
+    <row r="14" spans="1:14" ht="13.15">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="F14" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="11">
+      <c r="I14" s="11">
         <v>1.8468</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6">
         <v>5.8615199999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="13.15">
+    <row r="15" spans="1:14" ht="13.15">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
         <v>95</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K15" s="11">
+      <c r="I15" s="11">
         <v>1.7799</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="6">
+      <c r="N15" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="13.15">
+    <row r="16" spans="1:14" ht="13.15">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
         <v>98</v>
       </c>
+      <c r="F16" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G16" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I16" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="11">
+      <c r="I16" s="11">
         <v>1.722</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="6">
+      <c r="N16" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13.15">
+    <row r="17" spans="1:14" ht="13.15">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
         <v>100</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G17" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I17" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="11">
+      <c r="I17" s="11">
         <v>1.6836</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="6">
+      <c r="N17" s="6">
         <v>37.68</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13.15">
+    <row r="18" spans="1:14" ht="13.15">
       <c r="B18" s="19" t="s">
         <v>102</v>
       </c>
+      <c r="F18" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G18" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I18" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="11">
+      <c r="I18" s="11">
         <v>1.6446000000000001</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="6">
+      <c r="N18" s="6">
         <v>2139.4548</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="13.15">
+    <row r="19" spans="1:14" ht="13.15">
       <c r="B19" s="19" t="s">
         <v>104</v>
       </c>
+      <c r="F19" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G19" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I19" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="K19" s="11">
+      <c r="I19" s="11">
         <v>1.6102000000000001</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="6">
+      <c r="N19" s="6">
         <v>2.78</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="13.15">
+    <row r="20" spans="1:14" ht="13.15">
       <c r="B20" s="19" t="s">
         <v>106</v>
       </c>
+      <c r="F20" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G20" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I20" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K20" s="11">
+      <c r="I20" s="11">
         <v>1.5770999999999999</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="M20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P20" s="6">
+      <c r="N20" s="6">
         <v>3.6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="13.15">
+    <row r="21" spans="1:14" ht="13.15">
       <c r="B21" s="19" t="s">
         <v>108</v>
       </c>
+      <c r="F21" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G21" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I21" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K21" s="11">
+      <c r="I21" s="11">
         <v>1.5488</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="M21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="6">
+      <c r="N21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="13.15">
+    <row r="22" spans="1:14" ht="13.15">
       <c r="B22" s="19" t="s">
         <v>111</v>
       </c>
+      <c r="F22" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G22" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I22" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="11">
+      <c r="I22" s="11">
         <v>1.5224</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="M22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="6">
+      <c r="N22" s="6">
         <v>31.536000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="13.15">
+    <row r="23" spans="1:14" ht="13.15">
       <c r="B23" s="19" t="s">
         <v>114</v>
       </c>
+      <c r="F23" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G23" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I23" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="11">
+      <c r="I23" s="11">
         <v>1.5058</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P23" s="6">
+      <c r="N23" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="13.15">
+    <row r="24" spans="1:14" ht="13.15">
       <c r="B24" s="19" t="s">
         <v>117</v>
       </c>
+      <c r="F24" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G24" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="11">
+      <c r="I24" s="11">
         <v>1.4844999999999999</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="11">
+      <c r="N24" s="11">
         <v>5.8615199999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="13.15">
+    <row r="25" spans="1:14" ht="13.15">
       <c r="B25" s="19" t="s">
         <v>119</v>
       </c>
+      <c r="F25" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G25" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I25" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="11">
+      <c r="I25" s="11">
         <v>1.4518</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="11">
+      <c r="N25" s="11">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="13.15">
+    <row r="26" spans="1:14" ht="13.15">
       <c r="B26" s="19" t="s">
         <v>121</v>
       </c>
+      <c r="F26" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G26" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I26" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="11">
+      <c r="I26" s="11">
         <v>1.4198999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="13.15">
+    <row r="27" spans="1:14" ht="13.15">
       <c r="B27" s="19" t="s">
         <v>123</v>
       </c>
+      <c r="F27" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G27" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="11">
+      <c r="I27" s="11">
         <v>1.3986000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="13.15">
+    <row r="28" spans="1:14" ht="13.15">
       <c r="B28" s="19" t="s">
         <v>126</v>
       </c>
+      <c r="F28" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G28" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="11">
+      <c r="I28" s="11">
         <v>1.3727</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13.15">
+    <row r="29" spans="1:14" ht="13.15">
       <c r="B29" s="19" t="s">
         <v>128</v>
       </c>
+      <c r="F29" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G29" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="11">
+      <c r="I29" s="11">
         <v>1.3369</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="13.15">
+    <row r="30" spans="1:14" ht="13.15">
       <c r="B30" s="19" t="s">
         <v>129</v>
       </c>
+      <c r="F30" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G30" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I30" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="11">
+      <c r="I30" s="11">
         <v>1.2967</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="13.15">
+    <row r="31" spans="1:14" ht="13.15">
       <c r="B31" s="19" t="s">
         <v>131</v>
       </c>
+      <c r="F31" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G31" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I31" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="11">
+      <c r="I31" s="11">
         <v>1.2583</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="13.15">
+    <row r="32" spans="1:14" ht="13.15">
       <c r="B32" s="19" t="s">
         <v>133</v>
       </c>
+      <c r="F32" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G32" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I32" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K32" s="11">
+      <c r="I32" s="11">
         <v>1.2253000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="13.15">
+    <row r="33" spans="2:9" ht="13.15">
       <c r="B33" s="19" t="s">
         <v>135</v>
       </c>
+      <c r="F33" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G33" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K33" s="11">
+      <c r="I33" s="11">
         <v>1.2023999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="13.15">
+    <row r="34" spans="2:9" ht="13.15">
       <c r="B34" s="19" t="s">
         <v>137</v>
       </c>
+      <c r="F34" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G34" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I34" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="11">
+      <c r="I34" s="11">
         <v>1.1931</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="13.15">
+    <row r="35" spans="2:9" ht="13.15">
       <c r="B35" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="F35" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G35" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I35" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K35" s="11">
+      <c r="I35" s="11">
         <v>1.1793</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="13.15">
+    <row r="36" spans="2:9" ht="13.15">
       <c r="B36" s="19" t="s">
         <v>139</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K36" s="11">
+      <c r="I36" s="11">
         <v>1.1552</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="13.15">
+    <row r="37" spans="2:9" ht="13.15">
       <c r="B37" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="F37" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G37" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K37" s="11">
+      <c r="I37" s="11">
         <v>1.1334</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="13.15">
+    <row r="38" spans="2:9" ht="13.15">
       <c r="B38" s="19" t="s">
         <v>141</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G38" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I38" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="H38" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="11">
+      <c r="I38" s="11">
         <v>1.1136999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="13.15">
+    <row r="39" spans="2:9" ht="13.15">
       <c r="B39" s="19" t="s">
         <v>142</v>
       </c>
+      <c r="F39" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G39" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I39" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K39" s="11">
+      <c r="I39" s="11">
         <v>1.0934999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="13.15">
+    <row r="40" spans="2:9" ht="13.15">
       <c r="B40" s="19" t="s">
         <v>143</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G40" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I40" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K40" s="11">
+      <c r="I40" s="11">
         <v>1.0831</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="13.15">
+    <row r="41" spans="2:9" ht="13.15">
       <c r="B41" s="19" t="s">
         <v>144</v>
       </c>
+      <c r="F41" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G41" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I41" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K41" s="11">
+      <c r="I41" s="11">
         <v>1.0719000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="13.15">
+    <row r="42" spans="2:9" ht="13.15">
       <c r="B42" s="19" t="s">
         <v>145</v>
       </c>
+      <c r="F42" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G42" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I42" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="11">
+      <c r="I42" s="11">
         <v>1.0519000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="13.15">
+    <row r="43" spans="2:9" ht="13.15">
       <c r="B43" s="19" t="s">
         <v>146</v>
       </c>
+      <c r="F43" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G43" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I43" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="K43" s="11">
+      <c r="I43" s="11">
         <v>1.0274000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="13.15">
+    <row r="44" spans="2:9" ht="13.15">
       <c r="B44" s="19" t="s">
         <v>147</v>
       </c>
+      <c r="F44" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G44" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I44" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K44" s="11">
+      <c r="I44" s="11">
         <v>1.0091000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="13.15">
+    <row r="45" spans="2:9" ht="13.15">
       <c r="B45" s="19" t="s">
         <v>148</v>
       </c>
+      <c r="F45" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="G45" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K45" s="11">
+      <c r="I45" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="13.15">
+    <row r="46" spans="2:9" ht="13.15">
       <c r="B46" s="19" t="s">
         <v>149</v>
       </c>
+      <c r="F46" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G46" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K46" s="11">
+      <c r="I46" s="11">
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="13.15">
+    <row r="47" spans="2:9" ht="13.15">
       <c r="B47" s="19" t="s">
         <v>150</v>
       </c>
+      <c r="F47" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G47" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I47" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K47" s="11">
+      <c r="I47" s="11">
         <v>0.97809999999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="13.15">
+    <row r="48" spans="2:9" ht="13.15">
       <c r="B48" s="19" t="s">
         <v>151</v>
       </c>
+      <c r="F48" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G48" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I48" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K48" s="11">
+      <c r="I48" s="11">
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="13.15">
+    <row r="49" spans="2:9" ht="13.15">
       <c r="B49" s="19" t="s">
         <v>152</v>
       </c>
+      <c r="F49" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G49" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I49" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="H49" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K49" s="11">
+      <c r="I49" s="11">
         <v>0.94910000000000005</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.15">
+    <row r="50" spans="2:9" ht="13.15">
       <c r="B50" s="19" t="s">
         <v>153</v>
       </c>
+      <c r="F50" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G50" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I50" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K50" s="11">
+      <c r="I50" s="11">
         <v>0.92969999999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.15">
+    <row r="51" spans="2:9" ht="13.15">
       <c r="B51" s="19" t="s">
         <v>154</v>
       </c>
+      <c r="F51" s="11" t="str">
+        <f>F46</f>
+        <v>G_CUREX</v>
+      </c>
       <c r="G51" s="11" t="str">
-        <f>G46</f>
-        <v>G_CUREX</v>
-      </c>
-      <c r="I51" s="11" t="str">
-        <f t="shared" ref="I51:K51" si="0">I46</f>
+        <f t="shared" ref="G51:I51" si="0">G46</f>
         <v>USD20</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="K51" s="11">
+      <c r="I51" s="11">
         <f t="shared" si="0"/>
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.15">
+    <row r="52" spans="2:9" ht="13.15">
       <c r="B52" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="H52" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K52" s="11">
+      <c r="I52" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.15">
+    <row r="53" spans="2:9" ht="13.15">
       <c r="B53" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="H53" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K53" s="11">
+      <c r="I53" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.15">
+    <row r="54" spans="2:9" ht="13.15">
       <c r="B54" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="H54" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K54" s="11">
+      <c r="I54" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
-      <c r="G55" s="11" t="s">
+    <row r="55" spans="2:9">
+      <c r="F55" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="H55" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K55" s="11">
+      <c r="I55" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
-      <c r="G56" s="11" t="s">
+    <row r="56" spans="2:9">
+      <c r="F56" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="K56" s="11">
+      <c r="I56" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
-      <c r="G57" s="11" t="s">
+    <row r="57" spans="2:9">
+      <c r="F57" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="H57" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K57" s="11">
+      <c r="I57" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
-      <c r="G58" s="11" t="s">
+    <row r="58" spans="2:9">
+      <c r="F58" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="H58" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K58" s="11">
+      <c r="I58" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
-      <c r="G59" s="11" t="s">
+    <row r="59" spans="2:9">
+      <c r="F59" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="H59" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K59" s="11">
+      <c r="I59" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
-      <c r="G60" s="11" t="s">
+    <row r="60" spans="2:9">
+      <c r="F60" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="H60" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K60" s="11">
+      <c r="I60" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
-      <c r="G61" s="11" t="s">
+    <row r="61" spans="2:9">
+      <c r="F61" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="H61" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K61" s="11">
+      <c r="I61" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
-      <c r="G62" s="11" t="s">
+    <row r="62" spans="2:9">
+      <c r="F62" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="H62" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K62" s="11">
+      <c r="I62" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
-      <c r="G63" s="11" t="s">
+    <row r="63" spans="2:9">
+      <c r="F63" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="H63" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="K63" s="11">
+      <c r="I63" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
-      <c r="G64" s="11" t="s">
+    <row r="64" spans="2:9">
+      <c r="F64" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="H64" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K64" s="11">
+      <c r="I64" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="65" spans="7:11">
-      <c r="G65" s="11" t="s">
+    <row r="65" spans="6:9">
+      <c r="F65" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="H65" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K65" s="11">
+      <c r="I65" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="66" spans="7:11">
-      <c r="G66" s="11" t="s">
+    <row r="66" spans="6:9">
+      <c r="F66" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="H66" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K66" s="11">
+      <c r="I66" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="7:11">
-      <c r="G67" s="11" t="s">
+    <row r="67" spans="6:9">
+      <c r="F67" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="H67" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K67" s="11">
+      <c r="I67" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="68" spans="7:11">
-      <c r="G68" s="11" t="s">
+    <row r="68" spans="6:9">
+      <c r="F68" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K68" s="11">
+      <c r="I68" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="69" spans="7:11">
-      <c r="G69" s="11" t="s">
+    <row r="69" spans="6:9">
+      <c r="F69" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="H69" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K69" s="11">
+      <c r="I69" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="70" spans="7:11">
-      <c r="G70" s="11" t="s">
+    <row r="70" spans="6:9">
+      <c r="F70" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="H70" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K70" s="11">
+      <c r="I70" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="71" spans="7:11">
-      <c r="G71" s="11" t="s">
+    <row r="71" spans="6:9">
+      <c r="F71" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="H71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="11">
+      <c r="I71" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="72" spans="7:11">
-      <c r="G72" s="11" t="s">
+    <row r="72" spans="6:9">
+      <c r="F72" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="H72" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K72" s="11">
+      <c r="I72" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="73" spans="7:11">
-      <c r="G73" s="11" t="s">
+    <row r="73" spans="6:9">
+      <c r="F73" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="H73" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K73" s="11">
+      <c r="I73" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="74" spans="7:11">
-      <c r="G74" s="11" t="s">
+    <row r="74" spans="6:9">
+      <c r="F74" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="H74" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K74" s="11">
+      <c r="I74" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="75" spans="7:11">
-      <c r="G75" s="11" t="s">
+    <row r="75" spans="6:9">
+      <c r="F75" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="H75" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K75" s="11">
+      <c r="I75" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="76" spans="7:11">
-      <c r="G76" s="11" t="s">
+    <row r="76" spans="6:9">
+      <c r="F76" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="H76" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K76" s="11">
+      <c r="I76" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="7:11">
-      <c r="G77" s="11" t="s">
+    <row r="77" spans="6:9">
+      <c r="F77" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="H77" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K77" s="11">
+      <c r="I77" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="7:11">
-      <c r="G78" s="11" t="s">
+    <row r="78" spans="6:9">
+      <c r="F78" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="H78" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K78" s="11">
+      <c r="I78" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="79" spans="7:11">
-      <c r="G79" s="11" t="s">
+    <row r="79" spans="6:9">
+      <c r="F79" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="H79" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K79" s="11">
+      <c r="I79" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="80" spans="7:11">
-      <c r="G80" s="11" t="s">
+    <row r="80" spans="6:9">
+      <c r="F80" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="H80" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K80" s="11">
+      <c r="I80" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="81" spans="7:11">
-      <c r="G81" s="11" t="s">
+    <row r="81" spans="6:9">
+      <c r="F81" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K81" s="11">
+      <c r="I81" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="82" spans="7:11">
-      <c r="G82" s="11" t="s">
+    <row r="82" spans="6:9">
+      <c r="F82" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="H82" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K82" s="11">
+      <c r="I82" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="83" spans="7:11">
-      <c r="G83" s="11" t="s">
+    <row r="83" spans="6:9">
+      <c r="F83" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="H83" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K83" s="11">
+      <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="84" spans="7:11">
-      <c r="G84" s="11" t="s">
+    <row r="84" spans="6:9">
+      <c r="F84" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="H84" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K84" s="11">
+      <c r="I84" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="85" spans="7:11">
-      <c r="G85" s="11" t="s">
+    <row r="85" spans="6:9">
+      <c r="F85" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="H85" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K85" s="11">
+      <c r="I85" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="86" spans="7:11">
-      <c r="G86" s="11" t="s">
+    <row r="86" spans="6:9">
+      <c r="F86" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J86" s="11" t="s">
+      <c r="H86" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K86" s="11">
+      <c r="I86" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="87" spans="7:11">
-      <c r="G87" s="11" t="s">
+    <row r="87" spans="6:9">
+      <c r="F87" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="H87" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="K87" s="11">
+      <c r="I87" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="88" spans="7:11">
-      <c r="G88" s="11" t="s">
+    <row r="88" spans="6:9">
+      <c r="F88" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="H88" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K88" s="11">
+      <c r="I88" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="89" spans="7:11">
-      <c r="G89" s="11" t="s">
+    <row r="89" spans="6:9">
+      <c r="F89" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="H89" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K89" s="11">
+      <c r="I89" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="90" spans="7:11">
-      <c r="G90" s="11" t="s">
+    <row r="90" spans="6:9">
+      <c r="F90" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="H90" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K90" s="11">
+      <c r="I90" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="91" spans="7:11">
-      <c r="G91" s="11" t="s">
+    <row r="91" spans="6:9">
+      <c r="F91" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="H91" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K91" s="11">
+      <c r="I91" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="92" spans="7:11">
-      <c r="G92" s="11" t="s">
+    <row r="92" spans="6:9">
+      <c r="F92" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="H92" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K92" s="11">
+      <c r="I92" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="93" spans="7:11">
-      <c r="G93" s="11" t="s">
+    <row r="93" spans="6:9">
+      <c r="F93" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="H93" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K93" s="11">
+      <c r="I93" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="94" spans="7:11">
-      <c r="G94" s="11" t="s">
+    <row r="94" spans="6:9">
+      <c r="F94" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="H94" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K94" s="11">
+      <c r="I94" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="95" spans="7:11">
-      <c r="G95" s="11" t="s">
+    <row r="95" spans="6:9">
+      <c r="F95" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J95" s="11" t="str">
-        <f>J51</f>
+      <c r="H95" s="11" t="str">
+        <f>H51</f>
         <v>USD21_alt</v>
       </c>
-      <c r="K95" s="11">
+      <c r="I95" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
+      <c r="E99" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
+      <c r="E100" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I100" s="4">
+        <v>2022</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10" ht="14.25">
+      <c r="E101"/>
+      <c r="F101" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I101" s="22">
+        <f>1.10926234054354*I40</f>
+        <v>1.201442041042708</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10" ht="14.25">
+      <c r="E102"/>
+      <c r="F102" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I102" s="22">
+        <f>I84</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5839,7 +5943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
   <cols>

--- a/VerveStacks_SAU/SysSettings.xlsx
+++ b/VerveStacks_SAU/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2B43F5-BDE7-4AAD-8A42-B5D8CEBC5080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF38215B-1F25-47F9-AA7A-987ADC3A57C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_SAU/SysSettings.xlsx
+++ b/VerveStacks_SAU/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF38215B-1F25-47F9-AA7A-987ADC3A57C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069EBB35-6001-41F9-A802-27EAC23FCF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
